--- a/ScenarioTest_finalmobile.xlsx
+++ b/ScenarioTest_finalmobile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>Created By</t>
   </si>
@@ -88,6 +88,137 @@
   </si>
   <si>
     <t>winda</t>
+  </si>
+  <si>
+    <t>REG_001</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Register with valid data</t>
+  </si>
+  <si>
+    <t>1. Open com.example.mikebanks.bankscorpfinancial</t>
+  </si>
+  <si>
+    <t>2. Click button create a profile</t>
+  </si>
+  <si>
+    <t>3. input field data</t>
+  </si>
+  <si>
+    <t>4. Click button create profile</t>
+  </si>
+  <si>
+    <t>1. first name : akunnn 
+2. last name : testtt
+3. country : Indonesia
+4. username : akuntestlagi
+5. password : root1234
+6. confirm_password : root1234</t>
+  </si>
+  <si>
+    <t>should be open apps</t>
+  </si>
+  <si>
+    <t>should be success create profile</t>
+  </si>
+  <si>
+    <t>open apps</t>
+  </si>
+  <si>
+    <t>open create profile page</t>
+  </si>
+  <si>
+    <t>should be open create profile page</t>
+  </si>
+  <si>
+    <t>success create profile</t>
+  </si>
+  <si>
+    <t>REG_002</t>
+  </si>
+  <si>
+    <t>Register invalid</t>
+  </si>
+  <si>
+    <t>shouldn’t  be success create profile</t>
+  </si>
+  <si>
+    <t>unsuccessfully create profile</t>
+  </si>
+  <si>
+    <t>LOGIN_001</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>MP-3 Winda - TC Login Mobile</t>
+  </si>
+  <si>
+    <t>2.Input userame and password</t>
+  </si>
+  <si>
+    <t>3. Click button login</t>
+  </si>
+  <si>
+    <t>1. username : akuntestlagi
+2. password : root1234</t>
+  </si>
+  <si>
+    <t>should be success login and
+direct to dashboard</t>
+  </si>
+  <si>
+    <t>TRC_001</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Add account transaction</t>
+  </si>
+  <si>
+    <t>2. Click Hamburger bar</t>
+  </si>
+  <si>
+    <t>3. Click accounts</t>
+  </si>
+  <si>
+    <t>6. Click add</t>
+  </si>
+  <si>
+    <t>5. Input field data</t>
+  </si>
+  <si>
+    <t>1. Account Name : ce
+2. initial balance : 7000000</t>
+  </si>
+  <si>
+    <t>4. Click button add account</t>
+  </si>
+  <si>
+    <t>should be open hamburger bar</t>
+  </si>
+  <si>
+    <t>should be open accounts page</t>
+  </si>
+  <si>
+    <t>should be success add accounts</t>
+  </si>
+  <si>
+    <t>success login and direct to dashboard</t>
+  </si>
+  <si>
+    <t>open hamburger bar</t>
+  </si>
+  <si>
+    <t>open accounts page</t>
+  </si>
+  <si>
+    <t>success add accounts</t>
   </si>
 </sst>
 </file>
@@ -159,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -298,11 +429,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -382,6 +593,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="97" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1006,15 +1283,29 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="A12" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>11</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1027,15 +1318,21 @@
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="43"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1047,16 +1344,20 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+    <row r="14" spans="1:28" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1068,16 +1369,22 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:28" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+    <row r="15" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="44"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1090,159 +1397,249 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="A16" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>11</v>
+      </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="43"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+    <row r="18" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="43"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="44"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+    <row r="20" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>11</v>
+      </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="50"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+    <row r="22" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="51"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="A23" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>11</v>
+      </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="43"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="43"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="43"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="43"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="44"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7089,7 +7486,22 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="24">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="I23:I28"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="B12:B19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E3:F3"/>

--- a/ScenarioTest_finalmobile.xlsx
+++ b/ScenarioTest_finalmobile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>Created By</t>
   </si>
@@ -219,6 +219,25 @@
   </si>
   <si>
     <t>success add accounts</t>
+  </si>
+  <si>
+    <t>LOGOUT_001</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>1. call test case LOGIN_001</t>
+  </si>
+  <si>
+    <t>3. Click Logout</t>
+  </si>
+  <si>
+    <t>success logout and direct landinng page</t>
+  </si>
+  <si>
+    <t>should be opensuccess logout
+and direct landing page</t>
   </si>
 </sst>
 </file>
@@ -569,6 +588,72 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -593,72 +678,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="97" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="D23" zoomScale="97" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -899,22 +918,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="42"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -969,22 +988,22 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1037,15 +1056,15 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="49" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1085,7 +1104,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="28"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="10">
         <v>1</v>
       </c>
@@ -1246,10 +1265,10 @@
       <c r="C11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="17" t="s">
         <v>18</v>
       </c>
@@ -1283,27 +1302,27 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="30" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="33" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="3"/>
@@ -1318,21 +1337,21 @@
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="32" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="32" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="43"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1345,19 +1364,19 @@
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="32" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="45" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="43"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1370,21 +1389,21 @@
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="35" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35" t="s">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="44"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1397,321 +1416,347 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="30" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="33" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="32" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="32" t="s">
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="43"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="32" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="45" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="43"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="35" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="44"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="30" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="33" t="s">
         <v>11</v>
       </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="32" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="45" t="s">
+      <c r="E21" s="22"/>
+      <c r="F21" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="50"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="35" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="46" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="51"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="30" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="33" t="s">
         <v>11</v>
       </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="32" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="32" t="s">
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="43"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="32" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="32" t="s">
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="43"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="32" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="43"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="36"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="32" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="45" t="s">
+      <c r="E27" s="22"/>
+      <c r="F27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="43"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="36"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="35" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35" t="s">
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="I28" s="44"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="A29" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="36"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+    <row r="31" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="37"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="21"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="21"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7486,22 +7531,11 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="I23:I28"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="B12:B19"/>
+  <mergeCells count="28">
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="I29:I31"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E3:F3"/>
@@ -7511,6 +7545,21 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="I23:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/ScenarioTest_finalmobile.xlsx
+++ b/ScenarioTest_finalmobile.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>Created By</t>
-  </si>
-  <si>
-    <t>Nama Anda</t>
   </si>
   <si>
     <t>Reviewed By</t>
@@ -36,19 +33,10 @@
     <t>QA Tester’s Log</t>
   </si>
   <si>
-    <t>Review comments from Bill incorprate in version 2.1</t>
-  </si>
-  <si>
     <t>Last Tested</t>
   </si>
   <si>
-    <t>16-Oct-2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tester's Name </t>
-  </si>
-  <si>
-    <t>Mark</t>
   </si>
   <si>
     <t>Test Case Result</t>
@@ -85,9 +73,6 @@
   </si>
   <si>
     <t>Passed / Failed / Not executed</t>
-  </si>
-  <si>
-    <t>winda</t>
   </si>
   <si>
     <t>REG_001</t>
@@ -238,6 +223,12 @@
   <si>
     <t>should be opensuccess logout
 and direct landing page</t>
+  </si>
+  <si>
+    <t>Winda</t>
+  </si>
+  <si>
+    <t>final project mobile bank app</t>
   </si>
 </sst>
 </file>
@@ -618,31 +609,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -653,6 +632,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -665,7 +656,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -896,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D23" zoomScale="97" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="189" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -923,15 +914,15 @@
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="44"/>
       <c r="G1" s="41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" s="42"/>
       <c r="I1" s="2"/>
@@ -958,9 +949,7 @@
     <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="13" t="s">
-        <v>22</v>
-      </c>
+      <c r="C2" s="13"/>
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -989,19 +978,19 @@
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="44"/>
-      <c r="G3" s="46" t="s">
-        <v>7</v>
+      <c r="G3" s="46">
+        <v>44754</v>
       </c>
       <c r="H3" s="42"/>
       <c r="I3" s="4"/>
@@ -1057,24 +1046,24 @@
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="6" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="49" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1100,16 +1089,14 @@
     <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="C6" s="14"/>
       <c r="D6" s="3"/>
       <c r="E6" s="50"/>
       <c r="F6" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="11">
         <v>0</v>
@@ -1257,29 +1244,29 @@
     </row>
     <row r="11" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
@@ -1303,27 +1290,27 @@
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>7</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1338,20 +1325,20 @@
     </row>
     <row r="13" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="I13" s="32"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1365,18 +1352,18 @@
     </row>
     <row r="14" spans="1:28" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="36"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1389,19 +1376,19 @@
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I15" s="37"/>
       <c r="J15" s="3"/>
@@ -1417,308 +1404,308 @@
     </row>
     <row r="16" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="38" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>7</v>
       </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="I17" s="32"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I19" s="37"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>7</v>
       </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="34"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="35"/>
+        <v>55</v>
+      </c>
+      <c r="I22" s="40"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>7</v>
       </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="36"/>
+        <v>56</v>
+      </c>
+      <c r="I24" s="32"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="I25" s="36"/>
+        <v>57</v>
+      </c>
+      <c r="I25" s="32"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="36"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
-      <c r="I27" s="36"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="36"/>
+        <v>58</v>
+      </c>
+      <c r="I28" s="32"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>7</v>
       </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I30" s="36"/>
+        <v>56</v>
+      </c>
+      <c r="I30" s="32"/>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="24" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I31" s="37"/>
       <c r="J31" s="3"/>
@@ -7548,6 +7535,10 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="I12:I15"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="I23:I28"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="I16:I19"/>
@@ -7556,10 +7547,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="I20:I22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="I23:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/ScenarioTest_finalmobile.xlsx
+++ b/ScenarioTest_finalmobile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
   <si>
     <t>Created By</t>
   </si>
@@ -218,9 +218,6 @@
     <t>3. Click Logout</t>
   </si>
   <si>
-    <t>success logout and direct landinng page</t>
-  </si>
-  <si>
     <t>should be opensuccess logout
 and direct landing page</t>
   </si>
@@ -229,6 +226,114 @@
   </si>
   <si>
     <t>final project mobile bank app</t>
+  </si>
+  <si>
+    <t>TRC_002</t>
+  </si>
+  <si>
+    <t>Add payee</t>
+  </si>
+  <si>
+    <t>3. Click make a payment</t>
+  </si>
+  <si>
+    <t>4. Click button add payee</t>
+  </si>
+  <si>
+    <t>5. Input payee name</t>
+  </si>
+  <si>
+    <t>should be open payment page</t>
+  </si>
+  <si>
+    <t>open payment page</t>
+  </si>
+  <si>
+    <t>should be success add payee</t>
+  </si>
+  <si>
+    <t>success add payee</t>
+  </si>
+  <si>
+    <t>TR_003</t>
+  </si>
+  <si>
+    <t>Make a payment</t>
+  </si>
+  <si>
+    <t>Make a transfer</t>
+  </si>
+  <si>
+    <t>3. Click Make a transfer</t>
+  </si>
+  <si>
+    <t>4. Select sending account</t>
+  </si>
+  <si>
+    <t>5. Input amount</t>
+  </si>
+  <si>
+    <t>6. Select receiving account</t>
+  </si>
+  <si>
+    <t>7. Click button confirm transfer</t>
+  </si>
+  <si>
+    <t>amount : 50000</t>
+  </si>
+  <si>
+    <t>sending account : ts ($7000000)</t>
+  </si>
+  <si>
+    <t>payee name : spotify</t>
+  </si>
+  <si>
+    <t>receiving account : rey($12000000)</t>
+  </si>
+  <si>
+    <t>should be open transfer page</t>
+  </si>
+  <si>
+    <t>should be success transfer</t>
+  </si>
+  <si>
+    <t>open transfer page</t>
+  </si>
+  <si>
+    <t>success transfer</t>
+  </si>
+  <si>
+    <t>TR_004</t>
+  </si>
+  <si>
+    <t>4. Select an account to pay from</t>
+  </si>
+  <si>
+    <t>5. Select a payee</t>
+  </si>
+  <si>
+    <t>6. Input amount</t>
+  </si>
+  <si>
+    <t>7. Click button make payment</t>
+  </si>
+  <si>
+    <t>sending account : BCA ($795000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> paye : indihome (p1)</t>
+  </si>
+  <si>
+    <t>amount : 500000, 1500000, 1000000</t>
+  </si>
+  <si>
+    <t>should be success payment</t>
+  </si>
+  <si>
+    <t>success payment</t>
+  </si>
+  <si>
+    <t>success logout and direct landing page</t>
   </si>
 </sst>
 </file>
@@ -523,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -609,10 +714,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -621,28 +732,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -669,6 +759,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="189" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="F41" zoomScale="101" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -896,7 +1018,7 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="57.140625" customWidth="1"/>
-    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" customWidth="1"/>
     <col min="5" max="5" width="0.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="45.42578125" customWidth="1"/>
     <col min="7" max="7" width="34.140625" customWidth="1"/>
@@ -909,22 +1031,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="42"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -977,22 +1099,22 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="46">
+      <c r="F3" s="39"/>
+      <c r="G3" s="41">
         <v>44754</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1045,15 +1167,15 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="44" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1091,7 +1213,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="14"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="50"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="10">
         <v>5</v>
       </c>
@@ -1252,10 +1374,10 @@
       <c r="C11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="48"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="17" t="s">
         <v>14</v>
       </c>
@@ -1292,10 +1414,10 @@
       <c r="A12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="47" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="19" t="s">
@@ -1309,7 +1431,7 @@
       <c r="H12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="33" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="3"/>
@@ -1325,8 +1447,8 @@
     </row>
     <row r="13" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="21" t="s">
         <v>22</v>
       </c>
@@ -1338,7 +1460,7 @@
       <c r="H13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="32"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1352,8 +1474,8 @@
     </row>
     <row r="14" spans="1:28" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="21" t="s">
         <v>23</v>
       </c>
@@ -1363,7 +1485,7 @@
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="32"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1376,9 +1498,9 @@
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="24" t="s">
         <v>24</v>
       </c>
@@ -1390,7 +1512,7 @@
       <c r="H15" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="37"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1406,8 +1528,8 @@
       <c r="A16" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="47" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="19" t="s">
@@ -1421,15 +1543,15 @@
       <c r="H16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="33" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="21" t="s">
         <v>22</v>
       </c>
@@ -1441,13 +1563,13 @@
       <c r="H17" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="32"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="21" t="s">
         <v>23</v>
       </c>
@@ -1457,13 +1579,13 @@
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="32"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="24" t="s">
         <v>24</v>
       </c>
@@ -1475,17 +1597,17 @@
       <c r="H19" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="37"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="30" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -1499,15 +1621,15 @@
       <c r="H20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="33" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="21" t="s">
         <v>39</v>
       </c>
@@ -1517,13 +1639,13 @@
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="39"/>
+      <c r="I21" s="50"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="24" t="s">
         <v>40</v>
       </c>
@@ -1535,17 +1657,17 @@
       <c r="H22" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="40"/>
+      <c r="I22" s="51"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="30" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="19" t="s">
@@ -1559,15 +1681,15 @@
       <c r="H23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="33" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="21" t="s">
         <v>46</v>
       </c>
@@ -1579,13 +1701,13 @@
       <c r="H24" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="32"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="21" t="s">
         <v>47</v>
       </c>
@@ -1597,13 +1719,13 @@
       <c r="H25" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="32"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="21" t="s">
         <v>51</v>
       </c>
@@ -1611,13 +1733,13 @@
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="32"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="21" t="s">
         <v>49</v>
       </c>
@@ -1627,13 +1749,13 @@
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
-      <c r="I27" s="32"/>
+      <c r="I27" s="34"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="21" t="s">
         <v>48</v>
       </c>
@@ -1645,21 +1767,19 @@
       <c r="H28" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="32"/>
+      <c r="I28" s="34"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="30" t="s">
+        <v>67</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -1669,15 +1789,15 @@
       <c r="H29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="33" t="s">
         <v>7</v>
       </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="21" t="s">
         <v>46</v>
       </c>
@@ -1689,141 +1809,255 @@
       <c r="H30" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="32"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I31" s="37"/>
+    <row r="31" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" s="34"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="21"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="E33" s="22"/>
-      <c r="F33" s="25"/>
+      <c r="F33" s="25" t="s">
+        <v>85</v>
+      </c>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
-      <c r="I33" s="21"/>
+      <c r="I33" s="34"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+      <c r="G34" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="34"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="A35" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>7</v>
+      </c>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="34"/>
+    </row>
     <row r="37" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="34"/>
+    </row>
+    <row r="39" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="34"/>
+    </row>
     <row r="40" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+    <row r="41" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="29"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="I41" s="35"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+    <row r="42" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="31"/>
+      <c r="C42" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>7</v>
+      </c>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+    <row r="43" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="28"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="34"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+    <row r="44" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="34"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -1835,16 +2069,20 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+    <row r="45" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="34"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -1856,16 +2094,20 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+    <row r="46" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="34"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -1877,16 +2119,20 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+    <row r="47" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="34"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -1896,18 +2142,23 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-    </row>
-    <row r="48" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+    </row>
+    <row r="48" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="H48" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" s="34"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -1917,18 +2168,31 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-    </row>
-    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+    </row>
+    <row r="49" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="56" t="s">
+        <v>7</v>
+      </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -1938,18 +2202,23 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-    </row>
-    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+    </row>
+    <row r="50" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" s="57"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -1961,16 +2230,22 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
     </row>
-    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+    <row r="51" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="29"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" s="58"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -2064,7 +2339,6 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
     </row>
     <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
@@ -2085,7 +2359,6 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
     </row>
     <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
@@ -2106,7 +2379,6 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
     </row>
     <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
@@ -2151,15 +2423,6 @@
       <c r="S59" s="3"/>
     </row>
     <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -2172,15 +2435,6 @@
       <c r="S60" s="3"/>
     </row>
     <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -2202,15 +2456,6 @@
       <c r="AB61" s="3"/>
     </row>
     <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -5566,7 +5811,7 @@
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
+      <c r="E174" s="2"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -5593,13 +5838,13 @@
     </row>
     <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
@@ -5622,14 +5867,14 @@
       <c r="AB175" s="3"/>
     </row>
     <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
@@ -5652,14 +5897,14 @@
       <c r="AB176" s="3"/>
     </row>
     <row r="177" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
@@ -5682,15 +5927,15 @@
       <c r="AB177" s="3"/>
     </row>
     <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
@@ -5712,15 +5957,15 @@
       <c r="AB178" s="3"/>
     </row>
     <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
@@ -5742,15 +5987,15 @@
       <c r="AB179" s="3"/>
     </row>
     <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
@@ -5772,15 +6017,15 @@
       <c r="AB180" s="3"/>
     </row>
     <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
@@ -5802,15 +6047,14 @@
       <c r="AB181" s="3"/>
     </row>
     <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
@@ -5832,15 +6076,8 @@
       <c r="AB182" s="3"/>
     </row>
     <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
+      <c r="A183" s="2"/>
+      <c r="I183" s="2"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
@@ -5862,15 +6099,7 @@
       <c r="AB183" s="3"/>
     </row>
     <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
+      <c r="I184" s="2"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
@@ -5892,15 +6121,7 @@
       <c r="AB184" s="3"/>
     </row>
     <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
+      <c r="I185" s="2"/>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
@@ -5922,15 +6143,6 @@
       <c r="AB185" s="3"/>
     </row>
     <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
@@ -5952,15 +6164,6 @@
       <c r="AB186" s="3"/>
     </row>
     <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="3"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="2"/>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
@@ -5982,15 +6185,6 @@
       <c r="AB187" s="3"/>
     </row>
     <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
@@ -6012,15 +6206,6 @@
       <c r="AB188" s="3"/>
     </row>
     <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="2"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
@@ -6042,15 +6227,6 @@
       <c r="AB189" s="3"/>
     </row>
     <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="2"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
@@ -6072,15 +6248,6 @@
       <c r="AB190" s="3"/>
     </row>
     <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
@@ -6102,15 +6269,6 @@
       <c r="AB191" s="3"/>
     </row>
     <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="2"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
@@ -6131,16 +6289,7 @@
       <c r="AA192" s="3"/>
       <c r="AB192" s="3"/>
     </row>
-    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="2"/>
+    <row r="193" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
@@ -6161,15 +6310,7 @@
       <c r="AA193" s="3"/>
       <c r="AB193" s="3"/>
     </row>
-    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="2"/>
+    <row r="194" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
@@ -6190,8 +6331,7 @@
       <c r="AA194" s="3"/>
       <c r="AB194" s="3"/>
     </row>
-    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="2"/>
+    <row r="195" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
@@ -6212,7 +6352,7 @@
       <c r="AA195" s="3"/>
       <c r="AB195" s="3"/>
     </row>
-    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
@@ -6233,7 +6373,7 @@
       <c r="AA196" s="3"/>
       <c r="AB196" s="3"/>
     </row>
-    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
@@ -6254,7 +6394,7 @@
       <c r="AA197" s="3"/>
       <c r="AB197" s="3"/>
     </row>
-    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
@@ -6275,7 +6415,7 @@
       <c r="AA198" s="3"/>
       <c r="AB198" s="3"/>
     </row>
-    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
@@ -6296,7 +6436,7 @@
       <c r="AA199" s="3"/>
       <c r="AB199" s="3"/>
     </row>
-    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
@@ -6317,7 +6457,7 @@
       <c r="AA200" s="3"/>
       <c r="AB200" s="3"/>
     </row>
-    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
@@ -6338,7 +6478,7 @@
       <c r="AA201" s="3"/>
       <c r="AB201" s="3"/>
     </row>
-    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
@@ -6359,7 +6499,7 @@
       <c r="AA202" s="3"/>
       <c r="AB202" s="3"/>
     </row>
-    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
@@ -6380,7 +6520,7 @@
       <c r="AA203" s="3"/>
       <c r="AB203" s="3"/>
     </row>
-    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
@@ -6401,7 +6541,7 @@
       <c r="AA204" s="3"/>
       <c r="AB204" s="3"/>
     </row>
-    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
@@ -6422,7 +6562,7 @@
       <c r="AA205" s="3"/>
       <c r="AB205" s="3"/>
     </row>
-    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
@@ -6443,7 +6583,7 @@
       <c r="AA206" s="3"/>
       <c r="AB206" s="3"/>
     </row>
-    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
@@ -6464,7 +6604,7 @@
       <c r="AA207" s="3"/>
       <c r="AB207" s="3"/>
     </row>
-    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
@@ -7518,11 +7658,32 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="I29:I31"/>
+  <mergeCells count="37">
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="I35:I41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="I42:I48"/>
+    <mergeCell ref="B23:B48"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="I29:I34"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="I23:I28"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E3:F3"/>
@@ -7535,18 +7696,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="I23:I28"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="I20:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
